--- a/data/analysis/social_media_analytics/pivot_tables/governance_simpl-size/museum_activity_groups__var2-governance_simpl-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance_simpl-size/museum_activity_groups__var2-governance_simpl-size.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -446,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -484,318 +487,450 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>95390</v>
+        <v>31064</v>
       </c>
       <c r="D4">
-        <v>9539</v>
+        <v>3106.4</v>
       </c>
       <c r="E4">
-        <v>8389.9</v>
+        <v>3354.4</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2844.8</v>
+        <v>292.8</v>
       </c>
       <c r="H4">
-        <v>8777.5</v>
+        <v>2555.5</v>
       </c>
       <c r="I4">
-        <v>13079.8</v>
+        <v>4353.8</v>
       </c>
       <c r="J4">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="K4">
         <v>10</v>
       </c>
       <c r="L4">
-        <v>10598.9</v>
+        <v>4437.7</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O4">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="P4">
-        <v>11022</v>
+        <v>50075</v>
       </c>
       <c r="Q4">
-        <v>1102.2</v>
+        <v>5007.5</v>
       </c>
       <c r="R4">
-        <v>961.5</v>
+        <v>6083.6</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>248</v>
+        <v>264.2</v>
       </c>
       <c r="U4">
-        <v>1026</v>
+        <v>2818</v>
       </c>
       <c r="V4">
-        <v>1514.5</v>
+        <v>6992.2</v>
       </c>
       <c r="W4">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="X4">
         <v>10</v>
       </c>
       <c r="Y4">
+        <v>6259.4</v>
+      </c>
+      <c r="Z4">
+        <v>8</v>
+      </c>
+      <c r="AA4">
+        <v>80</v>
+      </c>
+      <c r="AB4">
+        <v>0.6</v>
+      </c>
+      <c r="AC4">
+        <v>11022</v>
+      </c>
+      <c r="AD4">
+        <v>1102.2</v>
+      </c>
+      <c r="AE4">
+        <v>961.5</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>248</v>
+      </c>
+      <c r="AH4">
+        <v>1026</v>
+      </c>
+      <c r="AI4">
+        <v>1514.5</v>
+      </c>
+      <c r="AJ4">
+        <v>2991</v>
+      </c>
+      <c r="AK4">
+        <v>10</v>
+      </c>
+      <c r="AL4">
         <v>1574.6</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>7</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>70</v>
       </c>
-      <c r="AB4">
+      <c r="AO4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>593000</v>
+        <v>417528</v>
       </c>
       <c r="D5">
-        <v>2771</v>
+        <v>1951.1</v>
       </c>
       <c r="E5">
-        <v>4010</v>
+        <v>2944.2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>473</v>
+        <v>311.8</v>
       </c>
       <c r="H5">
-        <v>1580</v>
+        <v>1067</v>
       </c>
       <c r="I5">
-        <v>3275.2</v>
+        <v>2405.8</v>
       </c>
       <c r="J5">
-        <v>24665</v>
+        <v>19900</v>
       </c>
       <c r="K5">
         <v>214</v>
       </c>
       <c r="L5">
-        <v>3294.4</v>
+        <v>2413.5</v>
       </c>
       <c r="M5">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N5">
-        <v>84.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="O5">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="P5">
-        <v>119579</v>
+        <v>141782</v>
       </c>
       <c r="Q5">
-        <v>558.8</v>
+        <v>662.5</v>
       </c>
       <c r="R5">
-        <v>581.9</v>
+        <v>1289.3</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>39.2</v>
       </c>
       <c r="U5">
-        <v>491.5</v>
+        <v>263</v>
       </c>
       <c r="V5">
-        <v>979.5</v>
+        <v>701.8</v>
       </c>
       <c r="W5">
-        <v>3210</v>
+        <v>12827</v>
       </c>
       <c r="X5">
         <v>214</v>
       </c>
       <c r="Y5">
+        <v>810.2</v>
+      </c>
+      <c r="Z5">
+        <v>175</v>
+      </c>
+      <c r="AA5">
+        <v>81.8</v>
+      </c>
+      <c r="AB5">
+        <v>0.7</v>
+      </c>
+      <c r="AC5">
+        <v>119579</v>
+      </c>
+      <c r="AD5">
+        <v>558.8</v>
+      </c>
+      <c r="AE5">
+        <v>581.9</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>491.5</v>
+      </c>
+      <c r="AI5">
+        <v>979.5</v>
+      </c>
+      <c r="AJ5">
+        <v>3210</v>
+      </c>
+      <c r="AK5">
+        <v>214</v>
+      </c>
+      <c r="AL5">
         <v>892.4</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>134</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>62.6</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>807722</v>
+        <v>265213</v>
       </c>
       <c r="D6">
-        <v>2256.2</v>
+        <v>740.8</v>
       </c>
       <c r="E6">
-        <v>5473.4</v>
+        <v>1293.5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>626</v>
+        <v>205</v>
       </c>
       <c r="I6">
-        <v>1939</v>
+        <v>1003.2</v>
       </c>
       <c r="J6">
-        <v>68140</v>
+        <v>14888</v>
       </c>
       <c r="K6">
         <v>358</v>
       </c>
       <c r="L6">
-        <v>2991.6</v>
+        <v>1158.1</v>
       </c>
       <c r="M6">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="N6">
-        <v>75.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="O6">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P6">
-        <v>200055</v>
+        <v>62080</v>
       </c>
       <c r="Q6">
-        <v>558.8</v>
+        <v>173.4</v>
       </c>
       <c r="R6">
-        <v>1289.6</v>
+        <v>636.8</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -804,43 +939,82 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V6">
-        <v>678.2</v>
+        <v>139</v>
       </c>
       <c r="W6">
-        <v>13336</v>
+        <v>10421</v>
       </c>
       <c r="X6">
         <v>358</v>
       </c>
       <c r="Y6">
-        <v>1307.5</v>
+        <v>267.6</v>
       </c>
       <c r="Z6">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="AA6">
-        <v>42.7</v>
+        <v>64.8</v>
       </c>
       <c r="AB6">
         <v>-0.2</v>
       </c>
+      <c r="AC6">
+        <v>200055</v>
+      </c>
+      <c r="AD6">
+        <v>558.8</v>
+      </c>
+      <c r="AE6">
+        <v>1289.6</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>678.2</v>
+      </c>
+      <c r="AJ6">
+        <v>13336</v>
+      </c>
+      <c r="AK6">
+        <v>358</v>
+      </c>
+      <c r="AL6">
+        <v>1307.5</v>
+      </c>
+      <c r="AM6">
+        <v>153</v>
+      </c>
+      <c r="AN6">
+        <v>42.7</v>
+      </c>
+      <c r="AO6">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>417205</v>
+        <v>116285</v>
       </c>
       <c r="D7">
-        <v>2096.5</v>
+        <v>584.3</v>
       </c>
       <c r="E7">
-        <v>4783.4</v>
+        <v>1213.2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -849,37 +1023,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1718</v>
+        <v>548</v>
       </c>
       <c r="J7">
-        <v>30621</v>
+        <v>7295</v>
       </c>
       <c r="K7">
         <v>199</v>
       </c>
       <c r="L7">
-        <v>3659.7</v>
+        <v>1264</v>
       </c>
       <c r="M7">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="N7">
-        <v>57.3</v>
+        <v>46.2</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="P7">
-        <v>106374</v>
+        <v>57248</v>
       </c>
       <c r="Q7">
-        <v>534.5</v>
+        <v>287.7</v>
       </c>
       <c r="R7">
-        <v>1459</v>
+        <v>1163.5</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -891,40 +1065,79 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>317</v>
+        <v>64</v>
       </c>
       <c r="W7">
-        <v>13336</v>
+        <v>9196</v>
       </c>
       <c r="X7">
         <v>199</v>
       </c>
       <c r="Y7">
+        <v>629.1</v>
+      </c>
+      <c r="Z7">
+        <v>91</v>
+      </c>
+      <c r="AA7">
+        <v>45.7</v>
+      </c>
+      <c r="AB7">
+        <v>-1.1</v>
+      </c>
+      <c r="AC7">
+        <v>106374</v>
+      </c>
+      <c r="AD7">
+        <v>534.5</v>
+      </c>
+      <c r="AE7">
+        <v>1459</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>317</v>
+      </c>
+      <c r="AJ7">
+        <v>13336</v>
+      </c>
+      <c r="AK7">
+        <v>199</v>
+      </c>
+      <c r="AL7">
         <v>1688.5</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>63</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>31.7</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>41358</v>
+        <v>14036</v>
       </c>
       <c r="D8">
-        <v>2954.1</v>
+        <v>1002.6</v>
       </c>
       <c r="E8">
-        <v>6073.9</v>
+        <v>1504.3</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -933,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>429.5</v>
+        <v>186</v>
       </c>
       <c r="I8">
-        <v>3400.2</v>
+        <v>1422</v>
       </c>
       <c r="J8">
-        <v>22835</v>
+        <v>4124</v>
       </c>
       <c r="K8">
         <v>14</v>
       </c>
       <c r="L8">
-        <v>4595.3</v>
+        <v>1754.5</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N8">
-        <v>64.3</v>
+        <v>57.1</v>
       </c>
       <c r="O8">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="P8">
-        <v>9012</v>
+        <v>4462</v>
       </c>
       <c r="Q8">
-        <v>643.7</v>
+        <v>318.7</v>
       </c>
       <c r="R8">
-        <v>875.9</v>
+        <v>663.7</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -972,213 +1185,330 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>268.5</v>
+        <v>14.5</v>
       </c>
       <c r="V8">
-        <v>951</v>
+        <v>231.5</v>
       </c>
       <c r="W8">
-        <v>2866</v>
+        <v>2400</v>
       </c>
       <c r="X8">
         <v>14</v>
       </c>
       <c r="Y8">
+        <v>557.8</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AA8">
+        <v>57.1</v>
+      </c>
+      <c r="AB8">
+        <v>-0.6</v>
+      </c>
+      <c r="AC8">
+        <v>9012</v>
+      </c>
+      <c r="AD8">
+        <v>643.7</v>
+      </c>
+      <c r="AE8">
+        <v>875.9</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>268.5</v>
+      </c>
+      <c r="AI8">
+        <v>951</v>
+      </c>
+      <c r="AJ8">
+        <v>2866</v>
+      </c>
+      <c r="AK8">
+        <v>14</v>
+      </c>
+      <c r="AL8">
         <v>1287.4</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>7</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>50</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>15703</v>
+        <v>1500</v>
       </c>
       <c r="D9">
-        <v>7851.5</v>
+        <v>750</v>
       </c>
       <c r="E9">
-        <v>1909.9</v>
+        <v>1060.7</v>
       </c>
       <c r="F9">
-        <v>6501</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>7176.2</v>
+        <v>375</v>
       </c>
       <c r="H9">
-        <v>7851.5</v>
+        <v>750</v>
       </c>
       <c r="I9">
-        <v>8526.799999999999</v>
+        <v>1125</v>
       </c>
       <c r="J9">
-        <v>9202</v>
+        <v>1500</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>7851.5</v>
+        <v>1500</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O9">
-        <v>1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="P9">
-        <v>686</v>
+        <v>7655</v>
       </c>
       <c r="Q9">
-        <v>343</v>
+        <v>3827.5</v>
       </c>
       <c r="R9">
-        <v>73.5</v>
+        <v>5412.9</v>
       </c>
       <c r="S9">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>317</v>
+        <v>1913.8</v>
       </c>
       <c r="U9">
-        <v>343</v>
+        <v>3827.5</v>
       </c>
       <c r="V9">
-        <v>369</v>
+        <v>5741.2</v>
       </c>
       <c r="W9">
-        <v>395</v>
+        <v>7655</v>
       </c>
       <c r="X9">
         <v>2</v>
       </c>
       <c r="Y9">
+        <v>7655</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>50</v>
+      </c>
+      <c r="AB9">
+        <v>-0.9</v>
+      </c>
+      <c r="AC9">
+        <v>686</v>
+      </c>
+      <c r="AD9">
         <v>343</v>
       </c>
-      <c r="Z9">
+      <c r="AE9">
+        <v>73.5</v>
+      </c>
+      <c r="AF9">
+        <v>291</v>
+      </c>
+      <c r="AG9">
+        <v>317</v>
+      </c>
+      <c r="AH9">
+        <v>343</v>
+      </c>
+      <c r="AI9">
+        <v>369</v>
+      </c>
+      <c r="AJ9">
+        <v>395</v>
+      </c>
+      <c r="AK9">
         <v>2</v>
       </c>
-      <c r="AA9">
+      <c r="AL9">
+        <v>343</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
         <v>100</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>500091</v>
+        <v>288523</v>
       </c>
       <c r="D10">
-        <v>1866</v>
+        <v>1076.6</v>
       </c>
       <c r="E10">
-        <v>3645.3</v>
+        <v>1636.8</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>184.8</v>
+        <v>127</v>
       </c>
       <c r="H10">
-        <v>716.5</v>
+        <v>527</v>
       </c>
       <c r="I10">
-        <v>1932.8</v>
+        <v>1276.8</v>
       </c>
       <c r="J10">
-        <v>31042</v>
+        <v>11096</v>
       </c>
       <c r="K10">
         <v>268</v>
       </c>
       <c r="L10">
-        <v>2222.6</v>
+        <v>1329.6</v>
       </c>
       <c r="M10">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N10">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O10">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="P10">
-        <v>135834</v>
+        <v>170325</v>
       </c>
       <c r="Q10">
-        <v>506.8</v>
+        <v>635.5</v>
       </c>
       <c r="R10">
-        <v>599.6</v>
+        <v>1987</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="U10">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="V10">
-        <v>771.5</v>
+        <v>420</v>
       </c>
       <c r="W10">
-        <v>4241</v>
+        <v>20111</v>
       </c>
       <c r="X10">
         <v>268</v>
       </c>
       <c r="Y10">
+        <v>763.8</v>
+      </c>
+      <c r="Z10">
+        <v>223</v>
+      </c>
+      <c r="AA10">
+        <v>83.2</v>
+      </c>
+      <c r="AB10">
+        <v>0.8</v>
+      </c>
+      <c r="AC10">
+        <v>135834</v>
+      </c>
+      <c r="AD10">
+        <v>506.8</v>
+      </c>
+      <c r="AE10">
+        <v>599.6</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>364</v>
+      </c>
+      <c r="AI10">
+        <v>771.5</v>
+      </c>
+      <c r="AJ10">
+        <v>4241</v>
+      </c>
+      <c r="AK10">
+        <v>268</v>
+      </c>
+      <c r="AL10">
         <v>776.2</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>175</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>65.3</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>536759</v>
+        <v>347671</v>
       </c>
       <c r="D11">
-        <v>1144.5</v>
+        <v>741.3</v>
       </c>
       <c r="E11">
-        <v>3341.2</v>
+        <v>2403.3</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1187,37 +1517,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="I11">
-        <v>1097</v>
+        <v>841</v>
       </c>
       <c r="J11">
-        <v>45403</v>
+        <v>43003</v>
       </c>
       <c r="K11">
         <v>469</v>
       </c>
       <c r="L11">
-        <v>1564.9</v>
+        <v>1083.1</v>
       </c>
       <c r="M11">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="N11">
-        <v>73.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="O11">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P11">
-        <v>167359</v>
+        <v>94754</v>
       </c>
       <c r="Q11">
-        <v>356.8</v>
+        <v>202</v>
       </c>
       <c r="R11">
-        <v>1771</v>
+        <v>599.1</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1226,43 +1556,82 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V11">
-        <v>438</v>
+        <v>164</v>
       </c>
       <c r="W11">
-        <v>36948</v>
+        <v>7809</v>
       </c>
       <c r="X11">
         <v>469</v>
       </c>
       <c r="Y11">
+        <v>287.1</v>
+      </c>
+      <c r="Z11">
+        <v>330</v>
+      </c>
+      <c r="AA11">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="AB11">
+        <v>0.1</v>
+      </c>
+      <c r="AC11">
+        <v>167359</v>
+      </c>
+      <c r="AD11">
+        <v>356.8</v>
+      </c>
+      <c r="AE11">
+        <v>1771</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>438</v>
+      </c>
+      <c r="AJ11">
+        <v>36948</v>
+      </c>
+      <c r="AK11">
+        <v>469</v>
+      </c>
+      <c r="AL11">
         <v>862.7</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>194</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>41.4</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>1742183</v>
+        <v>636900</v>
       </c>
       <c r="D12">
-        <v>1132</v>
+        <v>413.8</v>
       </c>
       <c r="E12">
-        <v>4464.3</v>
+        <v>1553</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1271,37 +1640,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>525</v>
+        <v>330.5</v>
       </c>
       <c r="J12">
-        <v>72982</v>
+        <v>47580</v>
       </c>
       <c r="K12">
         <v>1539</v>
       </c>
       <c r="L12">
-        <v>1944.4</v>
+        <v>791.2</v>
       </c>
       <c r="M12">
-        <v>896</v>
+        <v>805</v>
       </c>
       <c r="N12">
-        <v>58.2</v>
+        <v>52.3</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="P12">
-        <v>311409</v>
+        <v>185888</v>
       </c>
       <c r="Q12">
-        <v>202.3</v>
+        <v>120.8</v>
       </c>
       <c r="R12">
-        <v>1174.7</v>
+        <v>515.6</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1310,43 +1679,82 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="W12">
-        <v>36858</v>
+        <v>11227</v>
       </c>
       <c r="X12">
         <v>1539</v>
       </c>
       <c r="Y12">
-        <v>832.6</v>
+        <v>226.7</v>
       </c>
       <c r="Z12">
-        <v>374</v>
+        <v>820</v>
       </c>
       <c r="AA12">
-        <v>24.3</v>
+        <v>53.3</v>
       </c>
       <c r="AB12">
         <v>-0.8</v>
       </c>
+      <c r="AC12">
+        <v>311409</v>
+      </c>
+      <c r="AD12">
+        <v>202.3</v>
+      </c>
+      <c r="AE12">
+        <v>1174.7</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>36858</v>
+      </c>
+      <c r="AK12">
+        <v>1539</v>
+      </c>
+      <c r="AL12">
+        <v>832.6</v>
+      </c>
+      <c r="AM12">
+        <v>374</v>
+      </c>
+      <c r="AN12">
+        <v>24.3</v>
+      </c>
+      <c r="AO12">
+        <v>-0.8</v>
+      </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>275097</v>
+        <v>104850</v>
       </c>
       <c r="D13">
-        <v>2311.7</v>
+        <v>881.1</v>
       </c>
       <c r="E13">
-        <v>10170.8</v>
+        <v>4444</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1355,37 +1763,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>993.5</v>
+        <v>611</v>
       </c>
       <c r="J13">
-        <v>74441</v>
+        <v>47571</v>
       </c>
       <c r="K13">
         <v>119</v>
       </c>
       <c r="L13">
-        <v>4232.3</v>
+        <v>1718.9</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N13">
-        <v>54.6</v>
+        <v>51.3</v>
       </c>
       <c r="O13">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="P13">
-        <v>66473</v>
+        <v>36984</v>
       </c>
       <c r="Q13">
-        <v>558.6</v>
+        <v>310.8</v>
       </c>
       <c r="R13">
-        <v>2234.7</v>
+        <v>1949.3</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1397,249 +1805,366 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>165.5</v>
+        <v>84</v>
       </c>
       <c r="W13">
-        <v>20246</v>
+        <v>20884</v>
       </c>
       <c r="X13">
         <v>119</v>
       </c>
       <c r="Y13">
+        <v>637.7</v>
+      </c>
+      <c r="Z13">
+        <v>58</v>
+      </c>
+      <c r="AA13">
+        <v>48.7</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
+        <v>66473</v>
+      </c>
+      <c r="AD13">
+        <v>558.6</v>
+      </c>
+      <c r="AE13">
+        <v>2234.7</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>165.5</v>
+      </c>
+      <c r="AJ13">
+        <v>20246</v>
+      </c>
+      <c r="AK13">
+        <v>119</v>
+      </c>
+      <c r="AL13">
         <v>2014.3</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>33</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>27.7</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>98097</v>
+        <v>54008</v>
       </c>
       <c r="D14">
-        <v>6539.8</v>
+        <v>3600.5</v>
       </c>
       <c r="E14">
-        <v>6332.7</v>
+        <v>2995.2</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2796.5</v>
+        <v>1463</v>
       </c>
       <c r="H14">
-        <v>4438</v>
+        <v>2910</v>
       </c>
       <c r="I14">
-        <v>7928</v>
+        <v>4927</v>
       </c>
       <c r="J14">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K14">
         <v>15</v>
       </c>
       <c r="L14">
-        <v>7006.9</v>
+        <v>4154.5</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14">
-        <v>93.3</v>
+        <v>86.7</v>
       </c>
       <c r="O14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>12287</v>
+        <v>27489</v>
       </c>
       <c r="Q14">
-        <v>819.1</v>
+        <v>1832.6</v>
       </c>
       <c r="R14">
-        <v>562.1</v>
+        <v>3234.6</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>524</v>
+        <v>242.5</v>
       </c>
       <c r="U14">
-        <v>761</v>
+        <v>602</v>
       </c>
       <c r="V14">
-        <v>1090</v>
+        <v>1325.5</v>
       </c>
       <c r="W14">
-        <v>1710</v>
+        <v>9692</v>
       </c>
       <c r="X14">
         <v>15</v>
       </c>
       <c r="Y14">
+        <v>2114.5</v>
+      </c>
+      <c r="Z14">
+        <v>13</v>
+      </c>
+      <c r="AA14">
+        <v>86.7</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>12287</v>
+      </c>
+      <c r="AD14">
+        <v>819.1</v>
+      </c>
+      <c r="AE14">
+        <v>562.1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>524</v>
+      </c>
+      <c r="AH14">
+        <v>761</v>
+      </c>
+      <c r="AI14">
+        <v>1090</v>
+      </c>
+      <c r="AJ14">
+        <v>1710</v>
+      </c>
+      <c r="AK14">
+        <v>15</v>
+      </c>
+      <c r="AL14">
         <v>1023.9</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>12</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>80</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>1.1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>141432</v>
+        <v>61743</v>
       </c>
       <c r="D15">
-        <v>3928.7</v>
+        <v>1715.1</v>
       </c>
       <c r="E15">
-        <v>10127.4</v>
+        <v>2325.2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>579.5</v>
+        <v>208.2</v>
       </c>
       <c r="H15">
-        <v>1632.5</v>
+        <v>1312.5</v>
       </c>
       <c r="I15">
-        <v>2886.8</v>
+        <v>2093.2</v>
       </c>
       <c r="J15">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K15">
         <v>36</v>
       </c>
       <c r="L15">
-        <v>4285.8</v>
+        <v>1991.7</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>91.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="O15">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>17903</v>
+        <v>56289</v>
       </c>
       <c r="Q15">
-        <v>497.3</v>
+        <v>1563.6</v>
       </c>
       <c r="R15">
-        <v>515.5</v>
+        <v>7795.3</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="U15">
-        <v>425.5</v>
+        <v>167</v>
       </c>
       <c r="V15">
-        <v>860</v>
+        <v>327.2</v>
       </c>
       <c r="W15">
-        <v>1473</v>
+        <v>46992</v>
       </c>
       <c r="X15">
         <v>36</v>
       </c>
       <c r="Y15">
+        <v>1815.8</v>
+      </c>
+      <c r="Z15">
+        <v>31</v>
+      </c>
+      <c r="AA15">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="AB15">
+        <v>0.9</v>
+      </c>
+      <c r="AC15">
+        <v>17903</v>
+      </c>
+      <c r="AD15">
+        <v>497.3</v>
+      </c>
+      <c r="AE15">
+        <v>515.5</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>425.5</v>
+      </c>
+      <c r="AI15">
+        <v>860</v>
+      </c>
+      <c r="AJ15">
+        <v>1473</v>
+      </c>
+      <c r="AK15">
+        <v>36</v>
+      </c>
+      <c r="AL15">
         <v>813.8</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>22</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>61.1</v>
       </c>
-      <c r="AB15">
+      <c r="AO15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>103125</v>
+        <v>41413</v>
       </c>
       <c r="D16">
-        <v>2713.8</v>
+        <v>1089.8</v>
       </c>
       <c r="E16">
-        <v>4210.2</v>
+        <v>1366.9</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1014</v>
+        <v>435.5</v>
       </c>
       <c r="I16">
-        <v>3393.8</v>
+        <v>1901.2</v>
       </c>
       <c r="J16">
-        <v>20276</v>
+        <v>4400</v>
       </c>
       <c r="K16">
         <v>38</v>
       </c>
       <c r="L16">
-        <v>3556</v>
+        <v>1656.5</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N16">
-        <v>76.3</v>
+        <v>65.8</v>
       </c>
       <c r="O16">
         <v>-0.1</v>
       </c>
       <c r="P16">
-        <v>21047</v>
+        <v>10308</v>
       </c>
       <c r="Q16">
-        <v>553.9</v>
+        <v>271.3</v>
       </c>
       <c r="R16">
-        <v>1066.4</v>
+        <v>415.8</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1648,147 +2173,225 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="V16">
-        <v>829.8</v>
+        <v>382</v>
       </c>
       <c r="W16">
-        <v>5316</v>
+        <v>1707</v>
       </c>
       <c r="X16">
         <v>38</v>
       </c>
       <c r="Y16">
+        <v>412.3</v>
+      </c>
+      <c r="Z16">
+        <v>25</v>
+      </c>
+      <c r="AA16">
+        <v>65.8</v>
+      </c>
+      <c r="AB16">
+        <v>-0.1</v>
+      </c>
+      <c r="AC16">
+        <v>21047</v>
+      </c>
+      <c r="AD16">
+        <v>553.9</v>
+      </c>
+      <c r="AE16">
+        <v>1066.4</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>829.8</v>
+      </c>
+      <c r="AJ16">
+        <v>5316</v>
+      </c>
+      <c r="AK16">
+        <v>38</v>
+      </c>
+      <c r="AL16">
         <v>1315.4</v>
       </c>
-      <c r="Z16">
+      <c r="AM16">
         <v>16</v>
       </c>
-      <c r="AA16">
+      <c r="AN16">
         <v>42.1</v>
       </c>
-      <c r="AB16">
+      <c r="AO16">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>15810</v>
+        <v>2811</v>
       </c>
       <c r="D17">
-        <v>5270</v>
+        <v>937</v>
       </c>
       <c r="E17">
-        <v>5994.5</v>
+        <v>961.4</v>
       </c>
       <c r="F17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1843.5</v>
+        <v>445</v>
       </c>
       <c r="H17">
-        <v>2687</v>
+        <v>890</v>
       </c>
       <c r="I17">
-        <v>7405</v>
+        <v>1405.5</v>
       </c>
       <c r="J17">
-        <v>12123</v>
+        <v>1921</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
-        <v>5270</v>
+        <v>1405.5</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="O17">
-        <v>1.2</v>
+        <v>-0</v>
       </c>
       <c r="P17">
-        <v>350</v>
+        <v>870</v>
       </c>
       <c r="Q17">
-        <v>116.7</v>
+        <v>290</v>
       </c>
       <c r="R17">
-        <v>202.1</v>
+        <v>412.3</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="V17">
-        <v>175</v>
+        <v>435</v>
       </c>
       <c r="W17">
-        <v>350</v>
+        <v>762</v>
       </c>
       <c r="X17">
         <v>3</v>
       </c>
       <c r="Y17">
+        <v>435</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>66.7</v>
+      </c>
+      <c r="AB17">
+        <v>-0.1</v>
+      </c>
+      <c r="AC17">
         <v>350</v>
       </c>
-      <c r="Z17">
+      <c r="AD17">
+        <v>116.7</v>
+      </c>
+      <c r="AE17">
+        <v>202.1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>175</v>
+      </c>
+      <c r="AJ17">
+        <v>350</v>
+      </c>
+      <c r="AK17">
+        <v>3</v>
+      </c>
+      <c r="AL17">
+        <v>350</v>
+      </c>
+      <c r="AM17">
         <v>1</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>33.3</v>
       </c>
-      <c r="AB17">
+      <c r="AO17">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="D18">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="G18">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="H18">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="I18">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="J18">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1797,34 +2400,34 @@
         <v>100</v>
       </c>
       <c r="O18">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="P18">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="Q18">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="S18">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="T18">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="U18">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="V18">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="W18">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -1833,40 +2436,76 @@
         <v>100</v>
       </c>
       <c r="AB18">
+        <v>1.7</v>
+      </c>
+      <c r="AC18">
+        <v>208</v>
+      </c>
+      <c r="AD18">
+        <v>208</v>
+      </c>
+      <c r="AF18">
+        <v>208</v>
+      </c>
+      <c r="AG18">
+        <v>208</v>
+      </c>
+      <c r="AH18">
+        <v>208</v>
+      </c>
+      <c r="AI18">
+        <v>208</v>
+      </c>
+      <c r="AJ18">
+        <v>208</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>208</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>100</v>
+      </c>
+      <c r="AO18">
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F19">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I19">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J19">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1875,55 +2514,91 @@
         <v>100</v>
       </c>
       <c r="O19">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X19">
         <v>1</v>
       </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB19">
+        <v>1.7</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>57837</v>
+        <v>18552</v>
       </c>
       <c r="D20">
-        <v>1180.3</v>
+        <v>378.6</v>
       </c>
       <c r="E20">
-        <v>4085</v>
+        <v>1058.1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1935,34 +2610,34 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="J20">
-        <v>26102</v>
+        <v>4946</v>
       </c>
       <c r="K20">
         <v>49</v>
       </c>
       <c r="L20">
-        <v>2891.8</v>
+        <v>1030.7</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>40.8</v>
+        <v>36.7</v>
       </c>
       <c r="O20">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="P20">
-        <v>7018</v>
+        <v>2441</v>
       </c>
       <c r="Q20">
-        <v>143.2</v>
+        <v>49.8</v>
       </c>
       <c r="R20">
-        <v>361.6</v>
+        <v>135.2</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1974,40 +2649,79 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W20">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="X20">
         <v>49</v>
       </c>
       <c r="Y20">
+        <v>152.6</v>
+      </c>
+      <c r="Z20">
+        <v>16</v>
+      </c>
+      <c r="AA20">
+        <v>32.7</v>
+      </c>
+      <c r="AB20">
+        <v>-1.8</v>
+      </c>
+      <c r="AC20">
+        <v>7018</v>
+      </c>
+      <c r="AD20">
+        <v>143.2</v>
+      </c>
+      <c r="AE20">
+        <v>361.6</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>1735</v>
+      </c>
+      <c r="AK20">
+        <v>49</v>
+      </c>
+      <c r="AL20">
         <v>584.8</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>12</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>24.5</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>1891</v>
+        <v>1557</v>
       </c>
       <c r="D21">
-        <v>472.8</v>
+        <v>389.2</v>
       </c>
       <c r="E21">
-        <v>640.6</v>
+        <v>504.8</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2016,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>267.5</v>
+        <v>248.5</v>
       </c>
       <c r="I21">
-        <v>740.2</v>
+        <v>637.8</v>
       </c>
       <c r="J21">
-        <v>1356</v>
+        <v>1060</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>945.5</v>
+        <v>778.5</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2037,16 +2751,16 @@
         <v>50</v>
       </c>
       <c r="O21">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>84.5</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>144.8</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2055,31 +2769,71 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X21">
         <v>4</v>
       </c>
+      <c r="Y21">
+        <v>169</v>
+      </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB21">
+        <v>-0.9</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>4</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>-1.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A17"/>

--- a/data/analysis/social_media_analytics/pivot_tables/governance_simpl-size/museum_activity_groups__var2-governance_simpl-size.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance_simpl-size/museum_activity_groups__var2-governance_simpl-size.xlsx
@@ -639,34 +639,34 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>31064</v>
+        <v>37105</v>
       </c>
       <c r="D4">
-        <v>3106.4</v>
+        <v>3710.5</v>
       </c>
       <c r="E4">
-        <v>3354.4</v>
+        <v>3889.3</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>292.8</v>
+        <v>319.2</v>
       </c>
       <c r="H4">
-        <v>2555.5</v>
+        <v>3790</v>
       </c>
       <c r="I4">
-        <v>4353.8</v>
+        <v>4923</v>
       </c>
       <c r="J4">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="K4">
         <v>10</v>
       </c>
       <c r="L4">
-        <v>4437.7</v>
+        <v>5300.7</v>
       </c>
       <c r="M4">
         <v>7</v>
@@ -675,37 +675,37 @@
         <v>70</v>
       </c>
       <c r="O4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P4">
-        <v>50075</v>
+        <v>60723</v>
       </c>
       <c r="Q4">
-        <v>5007.5</v>
+        <v>6072.3</v>
       </c>
       <c r="R4">
-        <v>6083.6</v>
+        <v>7017.3</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>264.2</v>
+        <v>308.2</v>
       </c>
       <c r="U4">
-        <v>2818</v>
+        <v>3699</v>
       </c>
       <c r="V4">
-        <v>6992.2</v>
+        <v>9660</v>
       </c>
       <c r="W4">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X4">
         <v>10</v>
       </c>
       <c r="Y4">
-        <v>6259.4</v>
+        <v>7590.4</v>
       </c>
       <c r="Z4">
         <v>8</v>
@@ -717,34 +717,34 @@
         <v>0.6</v>
       </c>
       <c r="AC4">
-        <v>11022</v>
+        <v>12982</v>
       </c>
       <c r="AD4">
-        <v>1102.2</v>
+        <v>1298.2</v>
       </c>
       <c r="AE4">
-        <v>961.5</v>
+        <v>1115.3</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>248</v>
+        <v>295.2</v>
       </c>
       <c r="AH4">
-        <v>1026</v>
+        <v>1216</v>
       </c>
       <c r="AI4">
-        <v>1514.5</v>
+        <v>1917.5</v>
       </c>
       <c r="AJ4">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK4">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>1574.6</v>
+        <v>1854.6</v>
       </c>
       <c r="AM4">
         <v>7</v>
@@ -753,7 +753,7 @@
         <v>70</v>
       </c>
       <c r="AO4">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -762,121 +762,121 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>417528</v>
+        <v>495217</v>
       </c>
       <c r="D5">
-        <v>1951.1</v>
+        <v>2314.1</v>
       </c>
       <c r="E5">
-        <v>2944.2</v>
+        <v>3566</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>311.8</v>
+        <v>238.2</v>
       </c>
       <c r="H5">
-        <v>1067</v>
+        <v>1300</v>
       </c>
       <c r="I5">
-        <v>2405.8</v>
+        <v>2966.8</v>
       </c>
       <c r="J5">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K5">
         <v>214</v>
       </c>
       <c r="L5">
-        <v>2413.5</v>
+        <v>2896</v>
       </c>
       <c r="M5">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N5">
-        <v>80.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="O5">
         <v>0.7</v>
       </c>
       <c r="P5">
-        <v>141782</v>
+        <v>162965</v>
       </c>
       <c r="Q5">
-        <v>662.5</v>
+        <v>761.5</v>
       </c>
       <c r="R5">
-        <v>1289.3</v>
+        <v>1435.5</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>39.2</v>
+        <v>42.8</v>
       </c>
       <c r="U5">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="V5">
-        <v>701.8</v>
+        <v>768.8</v>
       </c>
       <c r="W5">
-        <v>12827</v>
+        <v>13652</v>
       </c>
       <c r="X5">
         <v>214</v>
       </c>
       <c r="Y5">
-        <v>810.2</v>
+        <v>942</v>
       </c>
       <c r="Z5">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA5">
-        <v>81.8</v>
+        <v>80.8</v>
       </c>
       <c r="AB5">
         <v>0.7</v>
       </c>
       <c r="AC5">
-        <v>119579</v>
+        <v>179139</v>
       </c>
       <c r="AD5">
-        <v>558.8</v>
+        <v>837.1</v>
       </c>
       <c r="AE5">
-        <v>581.9</v>
+        <v>828.5</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>114.5</v>
       </c>
       <c r="AH5">
-        <v>491.5</v>
+        <v>711.5</v>
       </c>
       <c r="AI5">
-        <v>979.5</v>
+        <v>1255.8</v>
       </c>
       <c r="AJ5">
-        <v>3210</v>
+        <v>6193</v>
       </c>
       <c r="AK5">
         <v>214</v>
       </c>
       <c r="AL5">
-        <v>892.4</v>
+        <v>1041.5</v>
       </c>
       <c r="AM5">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="AN5">
-        <v>62.6</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AO5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -885,13 +885,13 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>265213</v>
+        <v>306393</v>
       </c>
       <c r="D6">
-        <v>740.8</v>
+        <v>855.8</v>
       </c>
       <c r="E6">
-        <v>1293.5</v>
+        <v>1694.8</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -900,37 +900,37 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>205</v>
+        <v>194.5</v>
       </c>
       <c r="I6">
-        <v>1003.2</v>
+        <v>1151</v>
       </c>
       <c r="J6">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K6">
         <v>358</v>
       </c>
       <c r="L6">
-        <v>1158.1</v>
+        <v>1374</v>
       </c>
       <c r="M6">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N6">
-        <v>64</v>
+        <v>62.3</v>
       </c>
       <c r="O6">
         <v>-0.2</v>
       </c>
       <c r="P6">
-        <v>62080</v>
+        <v>74431</v>
       </c>
       <c r="Q6">
-        <v>173.4</v>
+        <v>207.9</v>
       </c>
       <c r="R6">
-        <v>636.8</v>
+        <v>1006.1</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -939,37 +939,37 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V6">
-        <v>139</v>
+        <v>152.8</v>
       </c>
       <c r="W6">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X6">
         <v>358</v>
       </c>
       <c r="Y6">
-        <v>267.6</v>
+        <v>327.9</v>
       </c>
       <c r="Z6">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AA6">
-        <v>64.8</v>
+        <v>63.4</v>
       </c>
       <c r="AB6">
         <v>-0.2</v>
       </c>
       <c r="AC6">
-        <v>200055</v>
+        <v>222809</v>
       </c>
       <c r="AD6">
-        <v>558.8</v>
+        <v>622.4</v>
       </c>
       <c r="AE6">
-        <v>1289.6</v>
+        <v>878.3</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -978,28 +978,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>317.5</v>
       </c>
       <c r="AI6">
-        <v>678.2</v>
+        <v>955.2</v>
       </c>
       <c r="AJ6">
-        <v>13336</v>
+        <v>8295</v>
       </c>
       <c r="AK6">
         <v>358</v>
       </c>
       <c r="AL6">
-        <v>1307.5</v>
+        <v>920.7</v>
       </c>
       <c r="AM6">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="AN6">
-        <v>42.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AO6">
-        <v>-0.2</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1008,13 +1008,13 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>116285</v>
+        <v>135593</v>
       </c>
       <c r="D7">
-        <v>584.3</v>
+        <v>681.4</v>
       </c>
       <c r="E7">
-        <v>1213.2</v>
+        <v>1423</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1026,34 +1026,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>548</v>
+        <v>624.5</v>
       </c>
       <c r="J7">
-        <v>7295</v>
+        <v>8046</v>
       </c>
       <c r="K7">
         <v>199</v>
       </c>
       <c r="L7">
-        <v>1264</v>
+        <v>1506.6</v>
       </c>
       <c r="M7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N7">
-        <v>46.2</v>
+        <v>45.2</v>
       </c>
       <c r="O7">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="P7">
-        <v>57248</v>
+        <v>64279</v>
       </c>
       <c r="Q7">
-        <v>287.7</v>
+        <v>323</v>
       </c>
       <c r="R7">
-        <v>1163.5</v>
+        <v>1287.6</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1065,34 +1065,34 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="W7">
-        <v>9196</v>
+        <v>10080</v>
       </c>
       <c r="X7">
         <v>199</v>
       </c>
       <c r="Y7">
-        <v>629.1</v>
+        <v>714.2</v>
       </c>
       <c r="Z7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA7">
-        <v>45.7</v>
+        <v>45.2</v>
       </c>
       <c r="AB7">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AC7">
-        <v>106374</v>
+        <v>68621</v>
       </c>
       <c r="AD7">
-        <v>534.5</v>
+        <v>344.8</v>
       </c>
       <c r="AE7">
-        <v>1459</v>
+        <v>614.1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>317</v>
+        <v>459.5</v>
       </c>
       <c r="AJ7">
-        <v>13336</v>
+        <v>3458</v>
       </c>
       <c r="AK7">
         <v>199</v>
       </c>
       <c r="AL7">
-        <v>1688.5</v>
+        <v>700.2</v>
       </c>
       <c r="AM7">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="AN7">
-        <v>31.7</v>
+        <v>49.2</v>
       </c>
       <c r="AO7">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1131,13 +1131,13 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>14036</v>
+        <v>16752</v>
       </c>
       <c r="D8">
-        <v>1002.6</v>
+        <v>1196.6</v>
       </c>
       <c r="E8">
-        <v>1504.3</v>
+        <v>1800.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1146,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="I8">
-        <v>1422</v>
+        <v>1567.8</v>
       </c>
       <c r="J8">
-        <v>4124</v>
+        <v>4812</v>
       </c>
       <c r="K8">
         <v>14</v>
       </c>
       <c r="L8">
-        <v>1754.5</v>
+        <v>2094</v>
       </c>
       <c r="M8">
         <v>8</v>
@@ -1167,16 +1167,16 @@
         <v>57.1</v>
       </c>
       <c r="O8">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="P8">
-        <v>4462</v>
+        <v>4745</v>
       </c>
       <c r="Q8">
-        <v>318.7</v>
+        <v>338.9</v>
       </c>
       <c r="R8">
-        <v>663.7</v>
+        <v>695.7</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1185,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="V8">
-        <v>231.5</v>
+        <v>269</v>
       </c>
       <c r="W8">
-        <v>2400</v>
+        <v>2528</v>
       </c>
       <c r="X8">
         <v>14</v>
       </c>
       <c r="Y8">
-        <v>557.8</v>
+        <v>593.1</v>
       </c>
       <c r="Z8">
         <v>8</v>
@@ -1209,13 +1209,13 @@
         <v>-0.6</v>
       </c>
       <c r="AC8">
-        <v>9012</v>
+        <v>11102</v>
       </c>
       <c r="AD8">
-        <v>643.7</v>
+        <v>793</v>
       </c>
       <c r="AE8">
-        <v>875.9</v>
+        <v>1081.8</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1224,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>268.5</v>
+        <v>269.5</v>
       </c>
       <c r="AI8">
-        <v>951</v>
+        <v>1163.8</v>
       </c>
       <c r="AJ8">
-        <v>2866</v>
+        <v>3450</v>
       </c>
       <c r="AK8">
         <v>14</v>
       </c>
       <c r="AL8">
-        <v>1287.4</v>
+        <v>1586</v>
       </c>
       <c r="AM8">
         <v>7</v>
@@ -1245,7 +1245,7 @@
         <v>50</v>
       </c>
       <c r="AO8">
-        <v>0.1</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1256,34 +1256,34 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="D9">
-        <v>750</v>
+        <v>1271</v>
       </c>
       <c r="E9">
-        <v>1060.7</v>
+        <v>1797.5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>375</v>
+        <v>635.5</v>
       </c>
       <c r="H9">
-        <v>750</v>
+        <v>1271</v>
       </c>
       <c r="I9">
-        <v>1125</v>
+        <v>1906.5</v>
       </c>
       <c r="J9">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1500</v>
+        <v>2542</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1295,34 +1295,34 @@
         <v>-0.9</v>
       </c>
       <c r="P9">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="Q9">
-        <v>3827.5</v>
+        <v>4758.5</v>
       </c>
       <c r="R9">
-        <v>5412.9</v>
+        <v>6729.5</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1913.8</v>
+        <v>2379.2</v>
       </c>
       <c r="U9">
-        <v>3827.5</v>
+        <v>4758.5</v>
       </c>
       <c r="V9">
-        <v>5741.2</v>
+        <v>7137.8</v>
       </c>
       <c r="W9">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="X9">
         <v>2</v>
       </c>
       <c r="Y9">
-        <v>7655</v>
+        <v>9517</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1334,34 +1334,34 @@
         <v>-0.9</v>
       </c>
       <c r="AC9">
-        <v>686</v>
+        <v>882</v>
       </c>
       <c r="AD9">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="AE9">
-        <v>73.5</v>
+        <v>69.3</v>
       </c>
       <c r="AF9">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="AG9">
-        <v>317</v>
+        <v>416.5</v>
       </c>
       <c r="AH9">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="AI9">
-        <v>369</v>
+        <v>465.5</v>
       </c>
       <c r="AJ9">
-        <v>395</v>
+        <v>490</v>
       </c>
       <c r="AK9">
         <v>2</v>
       </c>
       <c r="AL9">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -1370,7 +1370,7 @@
         <v>100</v>
       </c>
       <c r="AO9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1379,118 +1379,118 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>288523</v>
+        <v>339164</v>
       </c>
       <c r="D10">
-        <v>1076.6</v>
+        <v>1265.5</v>
       </c>
       <c r="E10">
-        <v>1636.8</v>
+        <v>1922.9</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>127</v>
+        <v>132.5</v>
       </c>
       <c r="H10">
-        <v>527</v>
+        <v>645</v>
       </c>
       <c r="I10">
-        <v>1276.8</v>
+        <v>1485.8</v>
       </c>
       <c r="J10">
-        <v>11096</v>
+        <v>13295</v>
       </c>
       <c r="K10">
         <v>268</v>
       </c>
       <c r="L10">
-        <v>1329.6</v>
+        <v>1570.2</v>
       </c>
       <c r="M10">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N10">
-        <v>81</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="O10">
         <v>0.7</v>
       </c>
       <c r="P10">
-        <v>170325</v>
+        <v>198242</v>
       </c>
       <c r="Q10">
-        <v>635.5</v>
+        <v>739.7</v>
       </c>
       <c r="R10">
-        <v>1987</v>
+        <v>2385.2</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>30.8</v>
+        <v>38.8</v>
       </c>
       <c r="U10">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="V10">
-        <v>420</v>
+        <v>474.2</v>
       </c>
       <c r="W10">
-        <v>20111</v>
+        <v>24554</v>
       </c>
       <c r="X10">
         <v>268</v>
       </c>
       <c r="Y10">
-        <v>763.8</v>
+        <v>893</v>
       </c>
       <c r="Z10">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA10">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="AB10">
         <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>135834</v>
+        <v>191285</v>
       </c>
       <c r="AD10">
-        <v>506.8</v>
+        <v>713.8</v>
       </c>
       <c r="AE10">
-        <v>599.6</v>
+        <v>720.9</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>191.5</v>
       </c>
       <c r="AH10">
-        <v>364</v>
+        <v>572.5</v>
       </c>
       <c r="AI10">
-        <v>771.5</v>
+        <v>988</v>
       </c>
       <c r="AJ10">
-        <v>4241</v>
+        <v>5325</v>
       </c>
       <c r="AK10">
         <v>268</v>
       </c>
       <c r="AL10">
-        <v>776.2</v>
+        <v>873.4</v>
       </c>
       <c r="AM10">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="AN10">
-        <v>65.3</v>
+        <v>81.7</v>
       </c>
       <c r="AO10">
         <v>0.6</v>
@@ -1502,13 +1502,13 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>347671</v>
+        <v>413378</v>
       </c>
       <c r="D11">
-        <v>741.3</v>
+        <v>881.4</v>
       </c>
       <c r="E11">
-        <v>2403.3</v>
+        <v>2997.6</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1517,37 +1517,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="I11">
-        <v>841</v>
+        <v>979</v>
       </c>
       <c r="J11">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K11">
         <v>469</v>
       </c>
       <c r="L11">
-        <v>1083.1</v>
+        <v>1304</v>
       </c>
       <c r="M11">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N11">
-        <v>68.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="O11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>94754</v>
+        <v>109572</v>
       </c>
       <c r="Q11">
-        <v>202</v>
+        <v>233.6</v>
       </c>
       <c r="R11">
-        <v>599.1</v>
+        <v>718.7</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1556,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="V11">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="W11">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="X11">
         <v>469</v>
       </c>
       <c r="Y11">
-        <v>287.1</v>
+        <v>336.1</v>
       </c>
       <c r="Z11">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AA11">
-        <v>70.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="AB11">
         <v>0.1</v>
       </c>
       <c r="AC11">
-        <v>167359</v>
+        <v>218343</v>
       </c>
       <c r="AD11">
-        <v>356.8</v>
+        <v>465.6</v>
       </c>
       <c r="AE11">
-        <v>1771</v>
+        <v>544.8</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1595,28 +1595,28 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="AI11">
-        <v>438</v>
+        <v>717</v>
       </c>
       <c r="AJ11">
-        <v>36948</v>
+        <v>3197</v>
       </c>
       <c r="AK11">
         <v>469</v>
       </c>
       <c r="AL11">
-        <v>862.7</v>
+        <v>622.1</v>
       </c>
       <c r="AM11">
-        <v>194</v>
+        <v>351</v>
       </c>
       <c r="AN11">
-        <v>41.4</v>
+        <v>74.8</v>
       </c>
       <c r="AO11">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1625,13 +1625,13 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>636900</v>
+        <v>741536</v>
       </c>
       <c r="D12">
-        <v>413.8</v>
+        <v>481.8</v>
       </c>
       <c r="E12">
-        <v>1553</v>
+        <v>1744.7</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1640,37 +1640,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>330.5</v>
+        <v>379</v>
       </c>
       <c r="J12">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K12">
         <v>1539</v>
       </c>
       <c r="L12">
-        <v>791.2</v>
+        <v>926.9</v>
       </c>
       <c r="M12">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="N12">
-        <v>52.3</v>
+        <v>52</v>
       </c>
       <c r="O12">
         <v>-0.8</v>
       </c>
       <c r="P12">
-        <v>185888</v>
+        <v>218984</v>
       </c>
       <c r="Q12">
-        <v>120.8</v>
+        <v>142.3</v>
       </c>
       <c r="R12">
-        <v>515.6</v>
+        <v>620.7</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1682,34 +1682,34 @@
         <v>2</v>
       </c>
       <c r="V12">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="W12">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X12">
         <v>1539</v>
       </c>
       <c r="Y12">
-        <v>226.7</v>
+        <v>267.7</v>
       </c>
       <c r="Z12">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AA12">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="AB12">
         <v>-0.8</v>
       </c>
       <c r="AC12">
-        <v>311409</v>
+        <v>442002</v>
       </c>
       <c r="AD12">
-        <v>202.3</v>
+        <v>287.2</v>
       </c>
       <c r="AE12">
-        <v>1174.7</v>
+        <v>522.2</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1718,28 +1718,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AJ12">
-        <v>36858</v>
+        <v>5226</v>
       </c>
       <c r="AK12">
         <v>1539</v>
       </c>
       <c r="AL12">
-        <v>832.6</v>
+        <v>500</v>
       </c>
       <c r="AM12">
-        <v>374</v>
+        <v>884</v>
       </c>
       <c r="AN12">
-        <v>24.3</v>
+        <v>57.4</v>
       </c>
       <c r="AO12">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1748,13 +1748,13 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>104850</v>
+        <v>121252</v>
       </c>
       <c r="D13">
-        <v>881.1</v>
+        <v>1018.9</v>
       </c>
       <c r="E13">
-        <v>4444</v>
+        <v>4933.9</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1766,34 +1766,34 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>611</v>
+        <v>784.5</v>
       </c>
       <c r="J13">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K13">
         <v>119</v>
       </c>
       <c r="L13">
-        <v>1718.9</v>
+        <v>2020.9</v>
       </c>
       <c r="M13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N13">
-        <v>51.3</v>
+        <v>50.4</v>
       </c>
       <c r="O13">
         <v>-0.9</v>
       </c>
       <c r="P13">
-        <v>36984</v>
+        <v>42858</v>
       </c>
       <c r="Q13">
-        <v>310.8</v>
+        <v>360.2</v>
       </c>
       <c r="R13">
-        <v>1949.3</v>
+        <v>2293.8</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1805,34 +1805,34 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W13">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X13">
         <v>119</v>
       </c>
       <c r="Y13">
-        <v>637.7</v>
+        <v>726.4</v>
       </c>
       <c r="Z13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA13">
-        <v>48.7</v>
+        <v>49.6</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>66473</v>
+        <v>49725</v>
       </c>
       <c r="AD13">
-        <v>558.6</v>
+        <v>417.9</v>
       </c>
       <c r="AE13">
-        <v>2234.7</v>
+        <v>616.4</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AI13">
-        <v>165.5</v>
+        <v>714.5</v>
       </c>
       <c r="AJ13">
-        <v>20246</v>
+        <v>3251</v>
       </c>
       <c r="AK13">
         <v>119</v>
       </c>
       <c r="AL13">
-        <v>2014.3</v>
+        <v>700.4</v>
       </c>
       <c r="AM13">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="AN13">
-        <v>27.7</v>
+        <v>59.7</v>
       </c>
       <c r="AO13">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1873,34 +1873,34 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>54008</v>
+        <v>63957</v>
       </c>
       <c r="D14">
-        <v>3600.5</v>
+        <v>4263.8</v>
       </c>
       <c r="E14">
-        <v>2995.2</v>
+        <v>3492.3</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1463</v>
+        <v>1657.5</v>
       </c>
       <c r="H14">
-        <v>2910</v>
+        <v>3505</v>
       </c>
       <c r="I14">
-        <v>4927</v>
+        <v>5901.5</v>
       </c>
       <c r="J14">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K14">
         <v>15</v>
       </c>
       <c r="L14">
-        <v>4154.5</v>
+        <v>4919.8</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1909,37 +1909,37 @@
         <v>86.7</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P14">
-        <v>27489</v>
+        <v>32016</v>
       </c>
       <c r="Q14">
-        <v>1832.6</v>
+        <v>2134.4</v>
       </c>
       <c r="R14">
-        <v>3234.6</v>
+        <v>3713</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>242.5</v>
+        <v>306</v>
       </c>
       <c r="U14">
-        <v>602</v>
+        <v>714</v>
       </c>
       <c r="V14">
-        <v>1325.5</v>
+        <v>1592.5</v>
       </c>
       <c r="W14">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X14">
         <v>15</v>
       </c>
       <c r="Y14">
-        <v>2114.5</v>
+        <v>2462.8</v>
       </c>
       <c r="Z14">
         <v>13</v>
@@ -1951,40 +1951,40 @@
         <v>1</v>
       </c>
       <c r="AC14">
-        <v>12287</v>
+        <v>15804</v>
       </c>
       <c r="AD14">
-        <v>819.1</v>
+        <v>1053.6</v>
       </c>
       <c r="AE14">
-        <v>562.1</v>
+        <v>622.5</v>
       </c>
       <c r="AF14">
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="AH14">
-        <v>761</v>
+        <v>1080</v>
       </c>
       <c r="AI14">
-        <v>1090</v>
+        <v>1443</v>
       </c>
       <c r="AJ14">
-        <v>1710</v>
+        <v>2094</v>
       </c>
       <c r="AK14">
         <v>15</v>
       </c>
       <c r="AL14">
-        <v>1023.9</v>
+        <v>1128.9</v>
       </c>
       <c r="AM14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN14">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="AO14">
         <v>1.1</v>
@@ -1996,91 +1996,91 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>61743</v>
+        <v>73333</v>
       </c>
       <c r="D15">
-        <v>1715.1</v>
+        <v>2037</v>
       </c>
       <c r="E15">
-        <v>2325.2</v>
+        <v>2647.6</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>208.2</v>
+        <v>296.8</v>
       </c>
       <c r="H15">
-        <v>1312.5</v>
+        <v>1564</v>
       </c>
       <c r="I15">
-        <v>2093.2</v>
+        <v>2561</v>
       </c>
       <c r="J15">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K15">
         <v>36</v>
       </c>
       <c r="L15">
-        <v>1991.7</v>
+        <v>2444.4</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15">
-        <v>86.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P15">
-        <v>56289</v>
+        <v>59530</v>
       </c>
       <c r="Q15">
-        <v>1563.6</v>
+        <v>1653.6</v>
       </c>
       <c r="R15">
-        <v>7795.3</v>
+        <v>8077.5</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>48.2</v>
+        <v>60.5</v>
       </c>
       <c r="U15">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="V15">
-        <v>327.2</v>
+        <v>382.2</v>
       </c>
       <c r="W15">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X15">
         <v>36</v>
       </c>
       <c r="Y15">
-        <v>1815.8</v>
+        <v>1984.3</v>
       </c>
       <c r="Z15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA15">
-        <v>86.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="AB15">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>17903</v>
+        <v>23421</v>
       </c>
       <c r="AD15">
-        <v>497.3</v>
+        <v>650.6</v>
       </c>
       <c r="AE15">
-        <v>515.5</v>
+        <v>616.2</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2089,28 +2089,28 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>425.5</v>
+        <v>664.5</v>
       </c>
       <c r="AI15">
-        <v>860</v>
+        <v>1140</v>
       </c>
       <c r="AJ15">
-        <v>1473</v>
+        <v>1845</v>
       </c>
       <c r="AK15">
         <v>36</v>
       </c>
       <c r="AL15">
-        <v>813.8</v>
+        <v>936.8</v>
       </c>
       <c r="AM15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN15">
-        <v>61.1</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="AO15">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2119,13 +2119,13 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>41413</v>
+        <v>47883</v>
       </c>
       <c r="D16">
-        <v>1089.8</v>
+        <v>1260.1</v>
       </c>
       <c r="E16">
-        <v>1366.9</v>
+        <v>1584.9</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>435.5</v>
+        <v>502</v>
       </c>
       <c r="I16">
-        <v>1901.2</v>
+        <v>2172</v>
       </c>
       <c r="J16">
-        <v>4400</v>
+        <v>5297</v>
       </c>
       <c r="K16">
         <v>38</v>
       </c>
       <c r="L16">
-        <v>1656.5</v>
+        <v>1915.3</v>
       </c>
       <c r="M16">
         <v>25</v>
@@ -2158,13 +2158,13 @@
         <v>-0.1</v>
       </c>
       <c r="P16">
-        <v>10308</v>
+        <v>11538</v>
       </c>
       <c r="Q16">
-        <v>271.3</v>
+        <v>303.6</v>
       </c>
       <c r="R16">
-        <v>415.8</v>
+        <v>466.5</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2173,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="V16">
-        <v>382</v>
+        <v>400.5</v>
       </c>
       <c r="W16">
-        <v>1707</v>
+        <v>1911</v>
       </c>
       <c r="X16">
         <v>38</v>
       </c>
       <c r="Y16">
-        <v>412.3</v>
+        <v>461.5</v>
       </c>
       <c r="Z16">
         <v>25</v>
@@ -2197,13 +2197,13 @@
         <v>-0.1</v>
       </c>
       <c r="AC16">
-        <v>21047</v>
+        <v>12974</v>
       </c>
       <c r="AD16">
-        <v>553.9</v>
+        <v>341.4</v>
       </c>
       <c r="AE16">
-        <v>1066.4</v>
+        <v>592.1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2212,28 +2212,28 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI16">
-        <v>829.8</v>
+        <v>401</v>
       </c>
       <c r="AJ16">
-        <v>5316</v>
+        <v>2204</v>
       </c>
       <c r="AK16">
         <v>38</v>
       </c>
       <c r="AL16">
-        <v>1315.4</v>
+        <v>648.7</v>
       </c>
       <c r="AM16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AN16">
-        <v>42.1</v>
+        <v>52.6</v>
       </c>
       <c r="AO16">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2242,34 +2242,34 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>2811</v>
+        <v>3287</v>
       </c>
       <c r="D17">
-        <v>937</v>
+        <v>1095.7</v>
       </c>
       <c r="E17">
-        <v>961.4</v>
+        <v>1123.5</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="H17">
-        <v>890</v>
+        <v>1042</v>
       </c>
       <c r="I17">
-        <v>1405.5</v>
+        <v>1643.5</v>
       </c>
       <c r="J17">
-        <v>1921</v>
+        <v>2245</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
-        <v>1405.5</v>
+        <v>1643.5</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -2281,34 +2281,34 @@
         <v>-0</v>
       </c>
       <c r="P17">
-        <v>870</v>
+        <v>925</v>
       </c>
       <c r="Q17">
-        <v>290</v>
+        <v>308.3</v>
       </c>
       <c r="R17">
-        <v>412.3</v>
+        <v>441.4</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>54</v>
+        <v>55.5</v>
       </c>
       <c r="U17">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="V17">
-        <v>435</v>
+        <v>462.5</v>
       </c>
       <c r="W17">
-        <v>762</v>
+        <v>814</v>
       </c>
       <c r="X17">
         <v>3</v>
       </c>
       <c r="Y17">
-        <v>435</v>
+        <v>462.5</v>
       </c>
       <c r="Z17">
         <v>2</v>
@@ -2320,13 +2320,13 @@
         <v>-0.1</v>
       </c>
       <c r="AC17">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="AD17">
-        <v>116.7</v>
+        <v>139.7</v>
       </c>
       <c r="AE17">
-        <v>202.1</v>
+        <v>241.9</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2338,16 +2338,16 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>175</v>
+        <v>209.5</v>
       </c>
       <c r="AJ17">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="AK17">
         <v>3</v>
       </c>
       <c r="AL17">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>33.3</v>
       </c>
       <c r="AO17">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2367,31 +2367,31 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D18">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="F18">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="G18">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="H18">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="I18">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="J18">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2403,31 +2403,31 @@
         <v>1.8</v>
       </c>
       <c r="P18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="Q18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="S18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="T18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="U18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="V18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="W18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -2439,31 +2439,31 @@
         <v>1.7</v>
       </c>
       <c r="AC18">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AD18">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AF18">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AG18">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH18">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI18">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ18">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AK18">
         <v>1</v>
       </c>
       <c r="AL18">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>100</v>
       </c>
       <c r="AO18">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2481,31 +2481,31 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2517,31 +2517,31 @@
         <v>1.8</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X19">
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2553,37 +2553,40 @@
         <v>1.7</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AK19">
         <v>1</v>
       </c>
+      <c r="AL19">
+        <v>54</v>
+      </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO19">
-        <v>-1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2592,13 +2595,13 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>18552</v>
+        <v>23503</v>
       </c>
       <c r="D20">
-        <v>378.6</v>
+        <v>479.7</v>
       </c>
       <c r="E20">
-        <v>1058.1</v>
+        <v>1373.5</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2610,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J20">
-        <v>4946</v>
+        <v>6144</v>
       </c>
       <c r="K20">
         <v>49</v>
       </c>
       <c r="L20">
-        <v>1030.7</v>
+        <v>1305.7</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -2628,16 +2631,16 @@
         <v>36.7</v>
       </c>
       <c r="O20">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="P20">
-        <v>2441</v>
+        <v>3438</v>
       </c>
       <c r="Q20">
-        <v>49.8</v>
+        <v>70.2</v>
       </c>
       <c r="R20">
-        <v>135.2</v>
+        <v>206.1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2652,31 +2655,31 @@
         <v>7</v>
       </c>
       <c r="W20">
-        <v>648</v>
+        <v>1010</v>
       </c>
       <c r="X20">
         <v>49</v>
       </c>
       <c r="Y20">
-        <v>152.6</v>
+        <v>202.2</v>
       </c>
       <c r="Z20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA20">
-        <v>32.7</v>
+        <v>34.7</v>
       </c>
       <c r="AB20">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AC20">
-        <v>7018</v>
+        <v>14682</v>
       </c>
       <c r="AD20">
-        <v>143.2</v>
+        <v>299.6</v>
       </c>
       <c r="AE20">
-        <v>361.6</v>
+        <v>614.1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2685,28 +2688,28 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="AJ20">
-        <v>1735</v>
+        <v>2668</v>
       </c>
       <c r="AK20">
         <v>49</v>
       </c>
       <c r="AL20">
-        <v>584.8</v>
+        <v>564.7</v>
       </c>
       <c r="AM20">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AN20">
-        <v>24.5</v>
+        <v>53.1</v>
       </c>
       <c r="AO20">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2715,13 +2718,13 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1557</v>
+        <v>1836</v>
       </c>
       <c r="D21">
-        <v>389.2</v>
+        <v>459</v>
       </c>
       <c r="E21">
-        <v>504.8</v>
+        <v>621.7</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2730,19 +2733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>248.5</v>
+        <v>260</v>
       </c>
       <c r="I21">
-        <v>637.8</v>
+        <v>719</v>
       </c>
       <c r="J21">
-        <v>1060</v>
+        <v>1316</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>778.5</v>
+        <v>918</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2754,13 +2757,13 @@
         <v>-0.9</v>
       </c>
       <c r="P21">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="Q21">
-        <v>84.5</v>
+        <v>99.2</v>
       </c>
       <c r="R21">
-        <v>144.8</v>
+        <v>173.5</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2769,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V21">
-        <v>103.5</v>
+        <v>118.8</v>
       </c>
       <c r="W21">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="X21">
         <v>4</v>
       </c>
       <c r="Y21">
-        <v>169</v>
+        <v>198.5</v>
       </c>
       <c r="Z21">
         <v>2</v>
@@ -2793,13 +2796,13 @@
         <v>-0.9</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>109.5</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2811,22 +2814,25 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AK21">
         <v>4</v>
       </c>
+      <c r="AL21">
+        <v>219</v>
+      </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO21">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
     </row>
   </sheetData>
